--- a/input/InputNameAcc.xlsx
+++ b/input/InputNameAcc.xlsx
@@ -24,19 +24,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name Acc</t>
   </si>
   <si>
-    <t>ACC-TIKTOK-8175-Thiet</t>
+    <t>ACC-TIKTOK-8120-Thiet</t>
+  </si>
+  <si>
+    <t>ACC-TIKTOK-8157-Thiet</t>
+  </si>
+  <si>
+    <t>ACC-TIKTOK-8174-Thiet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,8 +52,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF01162B"/>
-      <name val="GoogleSans-Regular"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,12 +65,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -72,8 +94,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,29 +377,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="H4" s="1"/>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/InputNameAcc.xlsx
+++ b/input/InputNameAcc.xlsx
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Name Acc</t>
   </si>
   <si>
     <t>ACC-TIKTOK-8120-Thiet</t>
-  </si>
-  <si>
-    <t>ACC-TIKTOK-8157-Thiet</t>
-  </si>
-  <si>
-    <t>ACC-TIKTOK-8174-Thiet</t>
   </si>
 </sst>
 </file>
@@ -377,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,14 +393,10 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -425,9 +415,6 @@
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/InputNameAcc.xlsx
+++ b/input/InputNameAcc.xlsx
@@ -24,12 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name Acc</t>
   </si>
   <si>
     <t>ACC-TIKTOK-8120-Thiet</t>
+  </si>
+  <si>
+    <t>ACC-TIKTOK-8218-Thiet</t>
+  </si>
+  <si>
+    <t>ACC-TIKTOK-8217-Thiet</t>
+  </si>
+  <si>
+    <t>ACC-TIKTOK-8212-Thiet</t>
   </si>
 </sst>
 </file>
@@ -374,7 +383,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,13 +402,19 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>

--- a/input/InputNameAcc.xlsx
+++ b/input/InputNameAcc.xlsx
@@ -24,21 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name Acc</t>
   </si>
   <si>
-    <t>ACC-TIKTOK-8120-Thiet</t>
+    <t>ACC-TIKTOK-8212-Thiet</t>
   </si>
   <si>
-    <t>ACC-TIKTOK-8218-Thiet</t>
-  </si>
-  <si>
-    <t>ACC-TIKTOK-8217-Thiet</t>
-  </si>
-  <si>
-    <t>ACC-TIKTOK-8212-Thiet</t>
+    <t>ACC-TIKTOK-8211-Thiet</t>
   </si>
 </sst>
 </file>
@@ -383,7 +377,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,14 +401,10 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>

--- a/input/InputNameAcc.xlsx
+++ b/input/InputNameAcc.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Name Acc</t>
   </si>
   <si>
-    <t>ACC-TIKTOK-8212-Thiet</t>
-  </si>
-  <si>
-    <t>ACC-TIKTOK-8211-Thiet</t>
+    <t>ACC-TIKTOK-8217-Thiet</t>
   </si>
 </sst>
 </file>
@@ -377,7 +374,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,9 +393,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
